--- a/docs/academico.xlsx
+++ b/docs/academico.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberson\Documents\R\dissertacao\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="geral" sheetId="1" r:id="rId1"/>
-    <sheet name="fpp3" sheetId="2" r:id="rId2"/>
-    <sheet name="probabilistica" sheetId="3" r:id="rId3"/>
-    <sheet name="cronograma" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="geral"/>
+    <sheet r:id="rId2" sheetId="2" name="fpp3"/>
+    <sheet r:id="rId3" sheetId="3" name="probabilistica"/>
+    <sheet r:id="rId4" sheetId="4" name="cronograma"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -63,18 +58,33 @@
     <t>dez</t>
   </si>
   <si>
+    <t>1. Introdução</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
+    <t>Capítulo 1: Reconciliação OLS, WLS e MinT</t>
+  </si>
+  <si>
     <t>Capítulo 2: Regressão quantílica</t>
   </si>
   <si>
+    <t>Capítulo 2: Reconciliação quantílica</t>
+  </si>
+  <si>
     <t>Capítulo 3: Breve exploratória dos dados</t>
   </si>
   <si>
     <t>Capítulo 3: Estimação e avaliação das abordagens</t>
   </si>
   <si>
+    <t>Capítulo 3: Análise das vantagens e problemas do método</t>
+  </si>
+  <si>
+    <t>Escolha das séries</t>
+  </si>
+  <si>
     <t>Obter autorizações do Banestes</t>
   </si>
   <si>
@@ -90,7 +100,7 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>Han, X., Dasgupta, S., &amp; Ghosh, J.</t>
+    <t>Han, X., Dasgupta, S., Ghosh, J.</t>
   </si>
   <si>
     <t>Simultaneously reconciled quantile forecasting of hierarchically related time series</t>
@@ -102,19 +112,19 @@
     <t>Reconciled boosted models for GEFCom2017 hierarchical probabilistic load forecasting</t>
   </si>
   <si>
-    <t>Hyndman, R. J., Ahmed, R. A., Athanasopoulos, G., &amp; Shang, H. L.</t>
+    <t>Hyndman, R. J., Ahmed, R. A., Athanasopoulos, G., Shang, H. L.</t>
   </si>
   <si>
     <t>Optimal combination forecasts for hierarchical time series</t>
   </si>
   <si>
-    <t>Panagiotelis, A., Athanasopoulos, G., Gamakumara, P., &amp; Hyndman, R. J.</t>
+    <t>Panagiotelis, A., Athanasopoulos, G., Gamakumara, P., Hyndman, R. J.</t>
   </si>
   <si>
     <t>Forecast reconciliation: A geometric view with new insights on bias correction</t>
   </si>
   <si>
-    <t>Wickramasuriya, S. L., Athanasopoulos, G., &amp; Hyndman, R. J.</t>
+    <t>Wickramasuriya, S. L., Athanasopoulos, G., Hyndman, R. J.</t>
   </si>
   <si>
     <t>Optimal forecast reconciliation for hierarchical and grouped time series through trace minimization</t>
@@ -196,34 +206,26 @@
   </si>
   <si>
     <t xml:space="preserve"> International journal of forecasting</t>
-  </si>
-  <si>
-    <t>1. Introdução</t>
-  </si>
-  <si>
-    <t>Capítulo 1: Reconciliação OLS, WLS e MinT</t>
-  </si>
-  <si>
-    <t>Capítulo 2: Reconciliação quantílica</t>
-  </si>
-  <si>
-    <t>Capítulo 3: Análise das vantagens e problemas do método</t>
-  </si>
-  <si>
-    <t>Escolha das séries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -234,7 +236,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -266,49 +268,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -319,10 +325,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -360,71 +366,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,7 +458,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -475,11 +481,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -488,13 +494,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -504,7 +510,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -513,7 +519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -522,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -530,10 +536,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -608,148 +614,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="86.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="33.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="8">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9">
         <v>5222</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>2018</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="E2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9">
         <v>2082</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>2007</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="E3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="9">
         <v>1023</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>2013</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="E4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9">
         <v>974</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>2009</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="9">
         <v>912</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>2016</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="E6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9">
         <v>798</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>2000</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>57</v>
+      <c r="E7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -764,67 +770,67 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="86.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="5.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9">
         <v>2011</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="8">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="8">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9">
         <v>2016</v>
       </c>
     </row>
@@ -844,41 +850,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="65.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="91.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="5.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="8">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9">
         <v>2019</v>
       </c>
     </row>
@@ -894,28 +900,26 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="4.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -956,12 +960,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -975,21 +979,21 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1000,18 +1004,18 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1021,34 +1025,34 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1058,16 +1062,16 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1077,16 +1081,16 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1096,22 +1100,22 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1124,12 +1128,12 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1143,9 +1147,9 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1153,7 +1157,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1164,6 +1168,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/academico.xlsx
+++ b/docs/academico.xlsx
@@ -4,12 +4,12 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="geral"/>
     <sheet r:id="rId2" sheetId="2" name="fpp3"/>
-    <sheet r:id="rId3" sheetId="3" name="probabilistica"/>
+    <sheet r:id="rId3" sheetId="3" name="ml"/>
     <sheet r:id="rId4" sheetId="4" name="cronograma"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>Atividade</t>
   </si>
@@ -97,19 +97,163 @@
     <t>Título</t>
   </si>
   <si>
+    <t>Citacoes</t>
+  </si>
+  <si>
     <t>Ano</t>
   </si>
   <si>
-    <t>Han, X., Dasgupta, S., Ghosh, J.</t>
-  </si>
-  <si>
-    <t>Simultaneously reconciled quantile forecasting of hierarchically related time series</t>
-  </si>
-  <si>
-    <t>Roach, C.</t>
-  </si>
-  <si>
-    <t>Reconciled boosted models for GEFCom2017 hierarchical probabilistic load forecasting</t>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Cit por ano</t>
+  </si>
+  <si>
+    <t>Li, SMM Rahman, R Vega, B Dong</t>
+  </si>
+  <si>
+    <t>A hierarchical approach using machine learning methods in solar photovoltaic energy production forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mdpi.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Energies</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/124868</t>
+  </si>
+  <si>
+    <t>Mancuso, V Piccialli, AM Sudoso</t>
+  </si>
+  <si>
+    <t>A machine learning approach for forecasting hierarchical time series</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsevier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expert Systems with Applications</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0957417421005431</t>
+  </si>
+  <si>
+    <t>Abolghasemi, RJ Hyndman, G Tarr</t>
+  </si>
+  <si>
+    <t>Machine learning applications in time series hierarchical forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arxiv.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arXiv preprint arXiv …</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1912.00370</t>
+  </si>
+  <si>
+    <t>Afolabi, SU Guan, KL Man, PWH Wong, X Zhao</t>
+  </si>
+  <si>
+    <t>Hierarchical meta-learning in time series forecasting for improved interference-less machine learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Symmetry</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/238964</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saatloo, A Moradzadeh, H Moayyed</t>
+  </si>
+  <si>
+    <t>Hierarchical Extreme Learning Machine Enabled Dynamic Line Rating Forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ieeexplore.ieee.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE Systems …</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9663544/</t>
+  </si>
+  <si>
+    <t>Abolghasemi, G Tarr, C Bergmeir</t>
+  </si>
+  <si>
+    <t>Machine learning applications in hierarchical time series forecasting: Investigating the impact of promotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Journal of Forecasting</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0169207022001029</t>
+  </si>
+  <si>
+    <t>C Neto, BL Fernando…</t>
+  </si>
+  <si>
+    <t>Use of machine learning and multilevel analysis in hierarchical approaches of public expenditure forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022 IEEE International …</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9945361/</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Machine learning Models: a Guide for the Use of Hierarchical Forecasting for Naval Spare Parts Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dbpia.co.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대한산업공학회 춘계공동학술대회 논문집</t>
+  </si>
+  <si>
+    <t>https://www.dbpia.co.kr/Journal/articleDetail?nodeId=NODE01959605</t>
+  </si>
+  <si>
+    <t>YAN, C SHENG</t>
+  </si>
+  <si>
+    <t>Short-term bus load forecasting based on hierarchical clustering method and extreme learning machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> joca.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Journal of Computer Applications</t>
+  </si>
+  <si>
+    <t>http://www.joca.cn/EN/10.11772/j.issn.1001-9081.2018010017</t>
+  </si>
+  <si>
+    <t>Varone, C Ieracitano, A Özyüksel, T Hussain…</t>
+  </si>
+  <si>
+    <t>A hierarchical extreme machine learning based-approach for the linear attenuation coefficient forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eprints.gla.ac.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entropy</t>
+  </si>
+  <si>
+    <t>https://eprints.gla.ac.uk/277436/</t>
   </si>
   <si>
     <t>Hyndman, R. J., Ahmed, R. A., Athanasopoulos, G., Shang, H. L.</t>
@@ -139,12 +283,6 @@
     <t>Citações</t>
   </si>
   <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Venue</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hyndman, G Athanasopoulos</t>
   </si>
   <si>
@@ -191,12 +329,6 @@
   </si>
   <si>
     <t>Probabilistic electric load forecasting: A tutorial review</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsevier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Journal of Forecasting</t>
   </si>
   <si>
     <t xml:space="preserve"> Tashman</t>
@@ -228,15 +360,15 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -268,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,14 +411,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -294,8 +420,20 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -304,7 +442,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,40 +752,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="86.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="86.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="33.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>41</v>
+      <c r="C1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>43</v>
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C2" s="9">
         <v>5222</v>
@@ -655,17 +793,17 @@
       <c r="D2" s="9">
         <v>2018</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="12"/>
+      <c r="E2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>46</v>
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C3" s="9">
         <v>2082</v>
@@ -673,19 +811,19 @@
       <c r="D3" s="9">
         <v>2007</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>48</v>
+      <c r="E3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>50</v>
+      <c r="A4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C4" s="9">
         <v>1023</v>
@@ -693,17 +831,17 @@
       <c r="D4" s="9">
         <v>2013</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="12"/>
+      <c r="E4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>53</v>
+      <c r="A5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="9">
         <v>974</v>
@@ -711,19 +849,19 @@
       <c r="D5" s="9">
         <v>2009</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>55</v>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>57</v>
+      <c r="A6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C6" s="9">
         <v>912</v>
@@ -731,19 +869,19 @@
       <c r="D6" s="9">
         <v>2016</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>61</v>
+      <c r="A7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C7" s="9">
         <v>798</v>
@@ -751,11 +889,11 @@
       <c r="D7" s="9">
         <v>2000</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>62</v>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -770,65 +908,65 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="86.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="86.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="5.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>32</v>
+      <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C2" s="9">
         <v>2011</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>34</v>
+      <c r="A3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C3" s="9">
         <v>2021</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
+      <c r="A4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C4" s="9">
         <v>2019</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>38</v>
+      <c r="A5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="9">
         <v>2016</v>
@@ -844,48 +982,306 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="65.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="91.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="65.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="91.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" s="9">
+        <v>114</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="10">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10">
         <v>2019</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="10">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2022</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2012</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2018</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2022</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -904,59 +1300,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="4.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="4.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="4.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -964,207 +1360,207 @@
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/academico.xlsx
+++ b/docs/academico.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberson\Documents\R\dissertacao\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="geral"/>
-    <sheet r:id="rId2" sheetId="2" name="fpp3"/>
-    <sheet r:id="rId3" sheetId="3" name="ml"/>
-    <sheet r:id="rId4" sheetId="4" name="cronograma"/>
+    <sheet name="geral" sheetId="1" r:id="rId1"/>
+    <sheet name="fpp3" sheetId="2" r:id="rId2"/>
+    <sheet name="ml" sheetId="3" r:id="rId3"/>
+    <sheet name="bancos" sheetId="5" r:id="rId4"/>
+    <sheet name="cronograma" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
   <si>
     <t>Atividade</t>
   </si>
@@ -338,13 +344,78 @@
   </si>
   <si>
     <t xml:space="preserve"> International journal of forecasting</t>
+  </si>
+  <si>
+    <t>Jamshidi, N Hussin</t>
+  </si>
+  <si>
+    <t>Forecasting patronage factors of Islamic credit card as a new e-commerce banking service: An integration of TAM with perceived religiosity and trust</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> emerald.com</t>
+  </si>
+  <si>
+    <t>Bernoth, A Pick</t>
+  </si>
+  <si>
+    <t>Forecasting the fragility of the banking and insurance sectors</t>
+  </si>
+  <si>
+    <t>Antunes, D Bonfim, N Monteiro</t>
+  </si>
+  <si>
+    <t>Forecasting banking crises with dynamic panel probit models</t>
+  </si>
+  <si>
+    <t>Karminsky, A Kostrov</t>
+  </si>
+  <si>
+    <t>The back side of banking in Russia: Forecasting bank failures with negative capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inderscienceonline.com</t>
+  </si>
+  <si>
+    <t>Poorzaker Arabani</t>
+  </si>
+  <si>
+    <t>The improvement of forecasting ATMS cash demand of Iran banking network using convolutional neural network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springer</t>
+  </si>
+  <si>
+    <t>Forecasting of processes the turnover and structure of the financial resources of the banking sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> indianjournals.com</t>
+  </si>
+  <si>
+    <t>Al Wadi, A Hamarsheh, H Alwadi</t>
+  </si>
+  <si>
+    <t>Maximum overlapping discrete wavelet transform in forecasting banking sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> researchgate.net</t>
+  </si>
+  <si>
+    <t>Dastoori, S Mansouri</t>
+  </si>
+  <si>
+    <t>Credit scoring model for iranian banking customers and forecasting creditworthiness of borrowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pdfs.semanticscholar.org</t>
+  </si>
+  <si>
+    <t>Yangibayevich, NB Absalomovich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,58 +472,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -463,10 +533,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -504,71 +574,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,7 +666,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -619,11 +689,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -632,13 +702,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -648,7 +718,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -657,7 +727,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -666,7 +736,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -674,10 +744,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -752,15 +822,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="86.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="43.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -780,7 +850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>88</v>
       </c>
@@ -798,7 +868,7 @@
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -818,7 +888,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -836,7 +906,7 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -856,7 +926,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>102</v>
       </c>
@@ -876,7 +946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>104</v>
       </c>
@@ -912,12 +982,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="86.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="43.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -928,7 +998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -939,7 +1009,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
@@ -950,7 +1020,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>83</v>
       </c>
@@ -961,7 +1031,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -984,21 +1054,19 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="65.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="91.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="65.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1024,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1050,7 +1118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -1076,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -1102,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
@@ -1128,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>51</v>
       </c>
@@ -1154,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
@@ -1180,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>60</v>
       </c>
@@ -1206,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>64</v>
       </c>
@@ -1232,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>69</v>
       </c>
@@ -1258,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>74</v>
       </c>
@@ -1290,6 +1358,179 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>2016</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>2011</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2019</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>2013</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>2013</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1300,22 +1541,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="4.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1375,7 +1616,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1400,7 +1641,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +1662,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1687,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1465,7 +1706,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1484,7 +1725,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1746,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1524,7 +1765,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +1784,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>

--- a/docs/academico.xlsx
+++ b/docs/academico.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberson\Documents\R\dissertacao\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="geral" sheetId="1" r:id="rId1"/>
-    <sheet name="fpp3" sheetId="2" r:id="rId2"/>
-    <sheet name="ml" sheetId="3" r:id="rId3"/>
-    <sheet name="bancos" sheetId="5" r:id="rId4"/>
-    <sheet name="cronograma" sheetId="4" r:id="rId5"/>
+    <sheet r:id="rId1" sheetId="1" name="geral"/>
+    <sheet r:id="rId2" sheetId="2" name="fpp3"/>
+    <sheet r:id="rId3" sheetId="3" name="ml"/>
+    <sheet r:id="rId4" sheetId="4" name="bancos"/>
+    <sheet r:id="rId5" sheetId="5" name="cronograma"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -103,15 +98,87 @@
     <t>Título</t>
   </si>
   <si>
+    <t>Citações</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jamshidi, N. Hussin</t>
+  </si>
+  <si>
+    <t>Forecasting patronage factors of Islamic credit card as a new e-commerce banking service: An integration of TAM with perceived religiosity and trust</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> emerald.com</t>
+  </si>
+  <si>
+    <t>Bernoth, A. Pick</t>
+  </si>
+  <si>
+    <t>Forecasting the fragility of the banking and insurance sectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsevier</t>
+  </si>
+  <si>
+    <t>Antunes, D. Bonfim, N. Monteiro</t>
+  </si>
+  <si>
+    <t>Forecasting banking crises with dynamic panel probit models</t>
+  </si>
+  <si>
+    <t>Karminsky, A. Kostrov</t>
+  </si>
+  <si>
+    <t>The back side of banking in Russia: Forecasting bank failures with negative capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inderscienceonline.com</t>
+  </si>
+  <si>
+    <t>Poorzaker Arabani</t>
+  </si>
+  <si>
+    <t>The improvement of forecasting ATMS cash demand of Iran banking network using convolutional neural network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springer</t>
+  </si>
+  <si>
+    <t>Yangibayevich, N.B. Absalomovich</t>
+  </si>
+  <si>
+    <t>Forecasting of processes the turnover and structure of the financial resources of the banking sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> indianjournals.com</t>
+  </si>
+  <si>
+    <t>Al Wadi, A. Hamarsheh, H. Alwadi</t>
+  </si>
+  <si>
+    <t>Maximum overlapping discrete wavelet transform in forecasting banking sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> researchgate.net</t>
+  </si>
+  <si>
+    <t>Dastoori, S. Mansouri</t>
+  </si>
+  <si>
+    <t>Credit scoring model for iranian banking customers and forecasting creditworthiness of borrowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pdfs.semanticscholar.org</t>
+  </si>
+  <si>
     <t>Citacoes</t>
   </si>
   <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
     <t>Venue</t>
   </si>
   <si>
@@ -121,7 +188,7 @@
     <t>Cit por ano</t>
   </si>
   <si>
-    <t>Li, SMM Rahman, R Vega, B Dong</t>
+    <t>Li, SMM Rahman, R. Vega, B. Dong</t>
   </si>
   <si>
     <t>A hierarchical approach using machine learning methods in solar photovoltaic energy production forecasting</t>
@@ -136,22 +203,19 @@
     <t>https://www.mdpi.com/124868</t>
   </si>
   <si>
-    <t>Mancuso, V Piccialli, AM Sudoso</t>
+    <t>Mancuso, V. Piccialli, A.M. Sudoso</t>
   </si>
   <si>
     <t>A machine learning approach for forecasting hierarchical time series</t>
   </si>
   <si>
-    <t xml:space="preserve"> Elsevier</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Expert Systems with Applications</t>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0957417421005431</t>
   </si>
   <si>
-    <t>Abolghasemi, RJ Hyndman, G Tarr</t>
+    <t>Abolghasemi, R.J. Hyndman, G. Tarr</t>
   </si>
   <si>
     <t>Machine learning applications in time series hierarchical forecasting</t>
@@ -166,7 +230,7 @@
     <t>https://arxiv.org/abs/1912.00370</t>
   </si>
   <si>
-    <t>Afolabi, SU Guan, KL Man, PWH Wong, X Zhao</t>
+    <t>Afolabi, Su Guan, K.L. Man, P.W.H. Wong, X. Zhao</t>
   </si>
   <si>
     <t>Hierarchical meta-learning in time series forecasting for improved interference-less machine learning</t>
@@ -178,7 +242,7 @@
     <t>https://www.mdpi.com/238964</t>
   </si>
   <si>
-    <t xml:space="preserve"> Saatloo, A Moradzadeh, H Moayyed</t>
+    <t xml:space="preserve"> Saatloo, A. Moradzadeh, H. Moayyed</t>
   </si>
   <si>
     <t>Hierarchical Extreme Learning Machine Enabled Dynamic Line Rating Forecasting</t>
@@ -193,7 +257,7 @@
     <t>https://ieeexplore.ieee.org/abstract/document/9663544/</t>
   </si>
   <si>
-    <t>Abolghasemi, G Tarr, C Bergmeir</t>
+    <t>Abolghasemi, G. Tarr, C. Bergmeir</t>
   </si>
   <si>
     <t>Machine learning applications in hierarchical time series forecasting: Investigating the impact of promotions</t>
@@ -205,7 +269,7 @@
     <t>https://www.sciencedirect.com/science/article/pii/S0169207022001029</t>
   </si>
   <si>
-    <t>C Neto, BL Fernando…</t>
+    <t>C. Neto, B.L. Fernando</t>
   </si>
   <si>
     <t>Use of machine learning and multilevel analysis in hierarchical approaches of public expenditure forecasting</t>
@@ -232,7 +296,7 @@
     <t>https://www.dbpia.co.kr/Journal/articleDetail?nodeId=NODE01959605</t>
   </si>
   <si>
-    <t>YAN, C SHENG</t>
+    <t>YAN, C. SHENG</t>
   </si>
   <si>
     <t>Short-term bus load forecasting based on hierarchical clustering method and extreme learning machine</t>
@@ -247,7 +311,7 @@
     <t>http://www.joca.cn/EN/10.11772/j.issn.1001-9081.2018010017</t>
   </si>
   <si>
-    <t>Varone, C Ieracitano, A Özyüksel, T Hussain…</t>
+    <t>Varone, C. Ieracitano, A. Özyüksel, T. Hussain</t>
   </si>
   <si>
     <t>A hierarchical extreme machine learning based-approach for the linear attenuation coefficient forecasting</t>
@@ -286,10 +350,7 @@
     <t>Fast computation of reconciled forecasts for hierarchical and grouped time series</t>
   </si>
   <si>
-    <t>Citações</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hyndman, G Athanasopoulos</t>
+    <t xml:space="preserve"> Hyndman, G. Athanasopoulos</t>
   </si>
   <si>
     <t>Forecasting: principles and practice</t>
@@ -298,7 +359,7 @@
     <t xml:space="preserve"> books.google.com</t>
   </si>
   <si>
-    <t>Dellarocas, X Zhang</t>
+    <t>Dellarocas, X. Zhang</t>
   </si>
   <si>
     <t>Exploring the value of online product reviews in forecasting sales: The case of motion pictures</t>
@@ -310,7 +371,7 @@
     <t xml:space="preserve"> Journal of Interactive</t>
   </si>
   <si>
-    <t>Hyndman, A Lee, E Wang, S Wickramasuriya</t>
+    <t>Hyndman, A. Lee, E. Wang, S. Wickramasuriya</t>
   </si>
   <si>
     <t>Package 'hts'</t>
@@ -319,7 +380,7 @@
     <t>project.org</t>
   </si>
   <si>
-    <t>Badre, M D'esposito</t>
+    <t>Badre, M. D'esposito</t>
   </si>
   <si>
     <t>Is the rostro-caudal axis of the frontal lobe hierarchical?</t>
@@ -331,7 +392,7 @@
     <t xml:space="preserve"> Nature Reviews Neuroscience</t>
   </si>
   <si>
-    <t>Hong, S Fan</t>
+    <t>Hong, S. Fan</t>
   </si>
   <si>
     <t>Probabilistic electric load forecasting: A tutorial review</t>
@@ -344,78 +405,13 @@
   </si>
   <si>
     <t xml:space="preserve"> International journal of forecasting</t>
-  </si>
-  <si>
-    <t>Jamshidi, N Hussin</t>
-  </si>
-  <si>
-    <t>Forecasting patronage factors of Islamic credit card as a new e-commerce banking service: An integration of TAM with perceived religiosity and trust</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> emerald.com</t>
-  </si>
-  <si>
-    <t>Bernoth, A Pick</t>
-  </si>
-  <si>
-    <t>Forecasting the fragility of the banking and insurance sectors</t>
-  </si>
-  <si>
-    <t>Antunes, D Bonfim, N Monteiro</t>
-  </si>
-  <si>
-    <t>Forecasting banking crises with dynamic panel probit models</t>
-  </si>
-  <si>
-    <t>Karminsky, A Kostrov</t>
-  </si>
-  <si>
-    <t>The back side of banking in Russia: Forecasting bank failures with negative capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inderscienceonline.com</t>
-  </si>
-  <si>
-    <t>Poorzaker Arabani</t>
-  </si>
-  <si>
-    <t>The improvement of forecasting ATMS cash demand of Iran banking network using convolutional neural network</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springer</t>
-  </si>
-  <si>
-    <t>Forecasting of processes the turnover and structure of the financial resources of the banking sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> indianjournals.com</t>
-  </si>
-  <si>
-    <t>Al Wadi, A Hamarsheh, H Alwadi</t>
-  </si>
-  <si>
-    <t>Maximum overlapping discrete wavelet transform in forecasting banking sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> researchgate.net</t>
-  </si>
-  <si>
-    <t>Dastoori, S Mansouri</t>
-  </si>
-  <si>
-    <t>Credit scoring model for iranian banking customers and forecasting creditworthiness of borrowers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pdfs.semanticscholar.org</t>
-  </si>
-  <si>
-    <t>Yangibayevich, NB Absalomovich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,58 +467,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,10 +524,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -574,71 +565,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -666,7 +657,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -689,11 +680,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -702,13 +693,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -718,7 +709,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -727,7 +718,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -736,7 +727,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -744,10 +735,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -822,148 +813,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="86.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="33.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="F1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="7">
         <v>5222</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>2018</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="E2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="7">
         <v>2082</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>2007</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="E3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="7">
         <v>1023</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>2013</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="E4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="7">
         <v>974</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>2009</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="E5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="7">
         <v>912</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>2016</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="7">
         <v>798</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>2000</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>106</v>
+      <c r="E7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -982,63 +973,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="86.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="5.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="9">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="7">
         <v>2011</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="9">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="9">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="7">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="9">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="7">
         <v>2016</v>
       </c>
     </row>
@@ -1058,297 +1049,299 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="12" width="50.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="91.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>26</v>
+      <c r="C1" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
+      <c r="F1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7">
         <v>114</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>2016</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="7">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="9">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
         <v>2021</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="10">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="10">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2017</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="10">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2021</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="F7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
         <v>2022</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="E8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="10">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="7">
+        <v>2012</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
         <v>2022</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2012</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2018</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="E11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1359,174 +1352,177 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="34.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="90.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="24.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7">
         <v>95</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>2016</v>
       </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3">
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7">
         <v>75</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>2011</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D4">
-        <v>2018</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>2017</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>2019</v>
       </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7">
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>2019</v>
       </c>
-      <c r="E7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8">
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
         <v>2013</v>
       </c>
-      <c r="E8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
         <v>2013</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1541,22 +1537,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="4.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="4.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1612,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1637,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1658,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1687,7 +1683,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1706,7 +1702,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1725,7 +1721,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1746,7 +1742,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1765,7 +1761,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1784,7 +1780,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>

--- a/docs/academico.xlsx
+++ b/docs/academico.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030075675\Documents\R Projects\dissertacao\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="geral"/>
-    <sheet r:id="rId2" sheetId="2" name="fpp3"/>
-    <sheet r:id="rId3" sheetId="3" name="ml"/>
-    <sheet r:id="rId4" sheetId="4" name="bancos"/>
-    <sheet r:id="rId5" sheetId="5" name="cronograma"/>
+    <sheet name="geral" sheetId="1" r:id="rId1"/>
+    <sheet name="fpp3" sheetId="2" r:id="rId2"/>
+    <sheet name="ml" sheetId="3" r:id="rId3"/>
+    <sheet name="bancos" sheetId="4" r:id="rId4"/>
+    <sheet name="cronograma" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="123">
   <si>
     <t>Atividade</t>
   </si>
@@ -50,45 +55,12 @@
     <t>set</t>
   </si>
   <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>dez</t>
-  </si>
-  <si>
     <t>1. Introdução</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Capítulo 1: Reconciliação OLS, WLS e MinT</t>
-  </si>
-  <si>
-    <t>Capítulo 2: Regressão quantílica</t>
-  </si>
-  <si>
-    <t>Capítulo 2: Reconciliação quantílica</t>
-  </si>
-  <si>
-    <t>Capítulo 3: Breve exploratória dos dados</t>
-  </si>
-  <si>
-    <t>Capítulo 3: Estimação e avaliação das abordagens</t>
-  </si>
-  <si>
-    <t>Capítulo 3: Análise das vantagens e problemas do método</t>
-  </si>
-  <si>
-    <t>Escolha das séries</t>
-  </si>
-  <si>
-    <t>Obter autorizações do Banestes</t>
-  </si>
-  <si>
     <t>Qualificação</t>
   </si>
   <si>
@@ -405,14 +377,28 @@
   </si>
   <si>
     <t xml:space="preserve"> International journal of forecasting</t>
+  </si>
+  <si>
+    <t>2. Revisão de Literatura</t>
+  </si>
+  <si>
+    <t>3. Métodos para Reconciliação de Séries Temporais Hierárquicas e Agrupadas</t>
+  </si>
+  <si>
+    <t>4. Metodologia</t>
+  </si>
+  <si>
+    <t>5. Resultados</t>
+  </si>
+  <si>
+    <t>Defesa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,13 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -467,53 +446,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -524,10 +499,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -565,71 +540,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,7 +632,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -680,11 +655,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -693,13 +668,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -709,7 +684,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -718,7 +693,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -727,7 +702,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -735,10 +710,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -811,150 +786,150 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="86.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="43.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5222</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2082</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2007</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1023</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2013</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C5" s="6">
+        <v>974</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2009</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="7">
-        <v>5222</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="7">
-        <v>2082</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2007</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C6" s="6">
+        <v>912</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2016</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10" t="s">
+      <c r="C7" s="6">
+        <v>798</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1023</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2013</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="7">
-        <v>974</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2009</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="7">
-        <v>912</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="7">
-        <v>798</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -971,65 +946,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="86.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="43.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="7">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="6">
         <v>2011</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="7">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6">
         <v>2021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="6">
         <v>2019</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="7">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="6">
         <v>2016</v>
       </c>
     </row>
@@ -1047,301 +1022,299 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="12" width="50.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="91.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="50.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6">
+        <v>114</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="6">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H3" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="10" t="s">
+      <c r="C4" s="6">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="F4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7">
-        <v>114</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="10" t="s">
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="7">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
         <v>2021</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="10" t="s">
+      <c r="E6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="F6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="7">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="10" t="s">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="7">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2017</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="10" t="s">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="G8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="7">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2012</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="10" t="s">
+      <c r="F9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="7">
+      <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2018</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <v>2022</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="E11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2012</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1357,168 +1330,168 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="8" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="90.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="34.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6">
+        <v>95</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>75</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2011</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C4" s="6">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C5" s="6">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5" t="s">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7">
-        <v>95</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C6" s="6">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5" t="s">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7">
-        <v>75</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2011</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C7" s="6">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5" t="s">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7">
-        <v>41</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5" t="s">
+      <c r="C8" s="6">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2013</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2017</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5" t="s">
+      <c r="C9" s="6">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2013</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="7">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="7">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="7">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2013</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="7">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2013</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1531,28 +1504,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="4.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1583,24 +1555,17 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1608,84 +1573,74 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33" customFormat="1" s="1">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1695,109 +1650,32 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="1">
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
